--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2489,129 +2489,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2626,6 +2503,129 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4227,23 +4227,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="256"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="257"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4253,21 +4253,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="261"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="262" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="262"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4282,14 +4282,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="267" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="H4" s="269" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="270"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4299,11 +4299,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="271" t="s">
+      <c r="P4" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="266"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6108,11 +6108,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="263">
+      <c r="M49" s="274">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="274">
+      <c r="N49" s="259">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6147,8 +6147,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="264"/>
-      <c r="N50" s="275"/>
+      <c r="M50" s="275"/>
+      <c r="N50" s="260"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6240,29 +6240,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="276" t="s">
+      <c r="H55" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="277"/>
+      <c r="I55" s="262"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="278">
+      <c r="K55" s="263">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="279"/>
-      <c r="M55" s="280">
+      <c r="L55" s="264"/>
+      <c r="M55" s="265">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="281"/>
+      <c r="N55" s="266"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="273" t="s">
+      <c r="D56" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="273"/>
+      <c r="E56" s="258"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6273,22 +6273,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="244" t="s">
+      <c r="D57" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="244"/>
+      <c r="E57" s="276"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="245" t="s">
+      <c r="I57" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="246"/>
-      <c r="K57" s="247">
+      <c r="J57" s="278"/>
+      <c r="K57" s="279">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="248"/>
+      <c r="L57" s="280"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6319,11 +6319,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="249">
+      <c r="K59" s="281">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="250"/>
+      <c r="L59" s="282"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -6340,22 +6340,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="251" t="s">
+      <c r="D61" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="252"/>
+      <c r="E61" s="284"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="253" t="s">
+      <c r="I61" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="254"/>
-      <c r="K61" s="255">
+      <c r="J61" s="286"/>
+      <c r="K61" s="287">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="255"/>
+      <c r="L61" s="287"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -6480,6 +6480,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6489,18 +6501,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7868,23 +7868,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="256"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="257"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7894,21 +7894,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="261"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="262" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="262"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7923,14 +7923,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="267" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="H4" s="269" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="270"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7940,11 +7940,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="283" t="s">
+      <c r="P4" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="284"/>
-      <c r="R4" s="282"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="288"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9745,11 +9745,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="263">
+      <c r="M45" s="274">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="274">
+      <c r="N45" s="259">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9779,8 +9779,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="275"/>
+      <c r="M46" s="275"/>
+      <c r="N46" s="260"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -9872,29 +9872,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="276" t="s">
+      <c r="H51" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="277"/>
+      <c r="I51" s="262"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="278">
+      <c r="K51" s="263">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="279"/>
-      <c r="M51" s="280">
+      <c r="L51" s="264"/>
+      <c r="M51" s="265">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="281"/>
+      <c r="N51" s="266"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="273" t="s">
+      <c r="D52" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="273"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -9905,22 +9905,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="244"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="245" t="s">
+      <c r="I53" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="246"/>
-      <c r="K53" s="247">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="248"/>
+      <c r="L53" s="280"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -9951,11 +9951,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="249">
+      <c r="K55" s="281">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="250"/>
+      <c r="L55" s="282"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -9972,22 +9972,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="251" t="s">
+      <c r="D57" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="252"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="253" t="s">
+      <c r="I57" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="254"/>
-      <c r="K57" s="255">
+      <c r="J57" s="286"/>
+      <c r="K57" s="287">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="255"/>
+      <c r="L57" s="287"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -10112,6 +10112,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10121,18 +10133,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10149,7 +10149,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11562,11 +11562,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11591,23 +11591,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="256"/>
-      <c r="C1" s="258" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="257"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11617,21 +11617,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="260" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="261"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="262" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="262"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="265" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11646,14 +11646,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="267" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="H4" s="269" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="270"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11663,11 +11663,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="283" t="s">
+      <c r="P4" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="284"/>
-      <c r="R4" s="282"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="288"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11676,36 +11676,45 @@
       <c r="B5" s="24">
         <v>44986</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>4174</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="E5" s="27">
         <v>44986</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>40846</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30">
         <v>44986</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31">
+        <v>673</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="32"/>
       <c r="L5" s="9"/>
       <c r="M5" s="33">
-        <v>0</v>
+        <f>39061+3828</f>
+        <v>42889</v>
       </c>
       <c r="N5" s="34">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="235">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>47849</v>
       </c>
       <c r="Q5" s="236">
         <v>0</v>
       </c>
       <c r="R5" s="237">
-        <v>19685</v>
+        <v>7003</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -11740,10 +11749,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="236">
-        <v>0</v>
-      </c>
-      <c r="R6" s="237">
-        <v>1248</v>
+        <f t="shared" ref="Q5:Q44" si="0">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="238">
+        <v>0</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -11779,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="236">
-        <f t="shared" ref="Q7:Q44" si="0">P7-F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="238">
@@ -11938,10 +11948,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="236">
-        <v>0</v>
-      </c>
-      <c r="R11" s="237">
-        <v>16800</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="238">
+        <v>0</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -12014,7 +12025,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="239">
+      <c r="Q13" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12053,7 +12064,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="239">
+      <c r="Q14" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12560,7 +12571,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="243">
+      <c r="Q27" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12599,7 +12610,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="243">
+      <c r="Q28" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13016,7 +13027,7 @@
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
       <c r="J40" s="74"/>
-      <c r="K40" s="285"/>
+      <c r="K40" s="244"/>
       <c r="L40" s="76"/>
       <c r="M40" s="33">
         <v>0</v>
@@ -13178,17 +13189,17 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="263">
+      <c r="M45" s="274">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="274">
+        <v>42889</v>
+      </c>
+      <c r="N45" s="259">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43002</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
@@ -13196,7 +13207,7 @@
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
-        <v>37733</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13212,8 +13223,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="275"/>
+      <c r="M46" s="275"/>
+      <c r="N46" s="260"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13263,7 +13274,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>0</v>
+        <v>4174</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -13271,7 +13282,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>0</v>
+        <v>40846</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -13279,7 +13290,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="129" t="s">
@@ -13305,32 +13316,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="276" t="s">
+      <c r="H51" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="277"/>
+      <c r="I51" s="262"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="278">
+      <c r="K51" s="263">
         <f>I49+L49</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="279"/>
-      <c r="M51" s="280">
+        <v>673</v>
+      </c>
+      <c r="L51" s="264"/>
+      <c r="M51" s="265">
         <f>N45+M45</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="281"/>
+        <v>43002</v>
+      </c>
+      <c r="N51" s="266"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="273" t="s">
+      <c r="D52" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="273"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>0</v>
+        <v>35999</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -13338,22 +13349,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="244"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="245" t="s">
+      <c r="I53" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="246"/>
-      <c r="K53" s="247">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="248"/>
+        <v>35999</v>
+      </c>
+      <c r="L53" s="280"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13377,18 +13388,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>0</v>
+        <v>35999</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="249">
+      <c r="K55" s="281">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="250"/>
+      <c r="L55" s="282"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13403,22 +13414,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="251" t="s">
+      <c r="D57" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="252"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="253" t="s">
+      <c r="I57" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="254"/>
-      <c r="K57" s="255">
+      <c r="J57" s="286"/>
+      <c r="K57" s="287">
         <f>K53+K55</f>
-        <v>-230554.55</v>
-      </c>
-      <c r="L57" s="255"/>
+        <v>-194555.55</v>
+      </c>
+      <c r="L57" s="287"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13543,6 +13554,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
@@ -13550,20 +13575,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13578,7 +13589,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
@@ -13638,7 +13649,7 @@
       <c r="C3" s="149">
         <v>56416.3</v>
       </c>
-      <c r="D3" s="286"/>
+      <c r="D3" s="245"/>
       <c r="E3" s="220"/>
       <c r="F3" s="180">
         <f>C3-E3</f>
@@ -13655,7 +13666,7 @@
       <c r="C4" s="149">
         <v>32587.200000000001</v>
       </c>
-      <c r="D4" s="286"/>
+      <c r="D4" s="245"/>
       <c r="E4" s="220"/>
       <c r="F4" s="183">
         <f>C4-E4+F3</f>
@@ -13672,7 +13683,7 @@
       <c r="C5" s="149">
         <v>167188.4</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="220"/>
       <c r="F5" s="183">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
@@ -13689,7 +13700,7 @@
       <c r="C6" s="149">
         <v>80004.850000000006</v>
       </c>
-      <c r="D6" s="286"/>
+      <c r="D6" s="245"/>
       <c r="E6" s="220"/>
       <c r="F6" s="183">
         <f t="shared" si="0"/>
@@ -13707,7 +13718,7 @@
       <c r="C7" s="149">
         <v>111204.71</v>
       </c>
-      <c r="D7" s="286"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="220"/>
       <c r="F7" s="183">
         <f t="shared" si="0"/>
@@ -13724,7 +13735,7 @@
       <c r="C8" s="149">
         <v>31158.5</v>
       </c>
-      <c r="D8" s="286"/>
+      <c r="D8" s="245"/>
       <c r="E8" s="220"/>
       <c r="F8" s="183">
         <f t="shared" si="0"/>
@@ -14341,10 +14352,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="287">
+      <c r="A43" s="246">
         <v>45012</v>
       </c>
-      <c r="B43" s="289" t="s">
+      <c r="B43" s="248" t="s">
         <v>156</v>
       </c>
       <c r="C43" s="149">
@@ -14358,10 +14369,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="288">
+      <c r="A44" s="247">
         <v>45012</v>
       </c>
-      <c r="B44" s="290" t="s">
+      <c r="B44" s="249" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="149">
@@ -14375,10 +14386,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="288">
+      <c r="A45" s="247">
         <v>45013</v>
       </c>
-      <c r="B45" s="290" t="s">
+      <c r="B45" s="249" t="s">
         <v>158</v>
       </c>
       <c r="C45" s="149">
@@ -14392,10 +14403,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="288">
+      <c r="A46" s="247">
         <v>45014</v>
       </c>
-      <c r="B46" s="290" t="s">
+      <c r="B46" s="249" t="s">
         <v>159</v>
       </c>
       <c r="C46" s="149">
@@ -14409,8 +14420,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="288"/>
-      <c r="B47" s="290"/>
+      <c r="A47" s="247"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="149"/>
       <c r="D47" s="192"/>
       <c r="E47" s="100"/>
@@ -14420,8 +14431,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="288"/>
-      <c r="B48" s="290"/>
+      <c r="A48" s="247"/>
+      <c r="B48" s="249"/>
       <c r="C48" s="149"/>
       <c r="D48" s="192"/>
       <c r="E48" s="100"/>
@@ -14431,8 +14442,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="288"/>
-      <c r="B49" s="290"/>
+      <c r="A49" s="247"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="149"/>
       <c r="D49" s="192"/>
       <c r="E49" s="100"/>
@@ -14442,8 +14453,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="288"/>
-      <c r="B50" s="290"/>
+      <c r="A50" s="247"/>
+      <c r="B50" s="249"/>
       <c r="C50" s="149"/>
       <c r="D50" s="192"/>
       <c r="E50" s="100"/>
@@ -14453,8 +14464,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="288"/>
-      <c r="B51" s="290"/>
+      <c r="A51" s="247"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="149"/>
       <c r="D51" s="192"/>
       <c r="E51" s="100"/>
@@ -14464,8 +14475,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="288"/>
-      <c r="B52" s="290"/>
+      <c r="A52" s="247"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="149"/>
       <c r="D52" s="192"/>
       <c r="E52" s="100"/>
@@ -14475,8 +14486,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="288"/>
-      <c r="B53" s="290"/>
+      <c r="A53" s="247"/>
+      <c r="B53" s="249"/>
       <c r="C53" s="149"/>
       <c r="D53" s="192"/>
       <c r="E53" s="100"/>
@@ -14486,8 +14497,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="288"/>
-      <c r="B54" s="290"/>
+      <c r="A54" s="247"/>
+      <c r="B54" s="249"/>
       <c r="C54" s="149"/>
       <c r="D54" s="192"/>
       <c r="E54" s="100"/>
@@ -14497,8 +14508,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="288"/>
-      <c r="B55" s="290"/>
+      <c r="A55" s="247"/>
+      <c r="B55" s="249"/>
       <c r="C55" s="149"/>
       <c r="D55" s="192"/>
       <c r="E55" s="100"/>
@@ -14508,8 +14519,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="288"/>
-      <c r="B56" s="290"/>
+      <c r="A56" s="247"/>
+      <c r="B56" s="249"/>
       <c r="C56" s="149"/>
       <c r="D56" s="192"/>
       <c r="E56" s="100"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>5464 E</t>
+  </si>
+  <si>
+    <t>NOMINA # 9</t>
+  </si>
+  <si>
+    <t>queso</t>
+  </si>
+  <si>
+    <t>NOMINA # 10</t>
   </si>
 </sst>
 </file>
@@ -2505,6 +2514,69 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2555,69 +2627,6 @@
     </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2637,8 +2646,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FF0000FF"/>
@@ -4227,23 +4236,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4253,21 +4262,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4282,14 +4291,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4299,11 +4308,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6108,11 +6117,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="274">
+      <c r="M49" s="269">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="259">
+      <c r="N49" s="280">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6147,8 +6156,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="275"/>
-      <c r="N50" s="260"/>
+      <c r="M50" s="270"/>
+      <c r="N50" s="281"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6240,29 +6249,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="261" t="s">
+      <c r="H55" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="262"/>
+      <c r="I55" s="283"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="263">
+      <c r="K55" s="284">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="264"/>
-      <c r="M55" s="265">
+      <c r="L55" s="285"/>
+      <c r="M55" s="286">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="266"/>
+      <c r="N55" s="287"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="258" t="s">
+      <c r="D56" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="258"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6273,22 +6282,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="276" t="s">
+      <c r="D57" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="276"/>
+      <c r="E57" s="250"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="277" t="s">
+      <c r="I57" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="278"/>
-      <c r="K57" s="279">
+      <c r="J57" s="252"/>
+      <c r="K57" s="253">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="280"/>
+      <c r="L57" s="254"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6319,11 +6328,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="281">
+      <c r="K59" s="255">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="282"/>
+      <c r="L59" s="256"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -6340,22 +6349,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="283" t="s">
+      <c r="D61" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="284"/>
+      <c r="E61" s="258"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="285" t="s">
+      <c r="I61" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="286"/>
-      <c r="K61" s="287">
+      <c r="J61" s="260"/>
+      <c r="K61" s="261">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="287"/>
+      <c r="L61" s="261"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -6480,18 +6489,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6501,6 +6498,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7868,23 +7877,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7894,21 +7903,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7923,14 +7932,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -9745,11 +9754,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="274">
+      <c r="M45" s="269">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="259">
+      <c r="N45" s="280">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9779,8 +9788,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="275"/>
-      <c r="N46" s="260"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="281"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -9872,29 +9881,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="261" t="s">
+      <c r="H51" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="262"/>
+      <c r="I51" s="283"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="263">
+      <c r="K51" s="284">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="264"/>
-      <c r="M51" s="265">
+      <c r="L51" s="285"/>
+      <c r="M51" s="286">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="266"/>
+      <c r="N51" s="287"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="258" t="s">
+      <c r="D52" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="279"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -9905,22 +9914,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276" t="s">
+      <c r="D53" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="276"/>
+      <c r="E53" s="250"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="252"/>
+      <c r="K53" s="253">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="280"/>
+      <c r="L53" s="254"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -9951,11 +9960,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="281">
+      <c r="K55" s="255">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="282"/>
+      <c r="L55" s="256"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -9972,22 +9981,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="283" t="s">
+      <c r="D57" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="284"/>
+      <c r="E57" s="258"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="285" t="s">
+      <c r="I57" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="286"/>
-      <c r="K57" s="287">
+      <c r="J57" s="260"/>
+      <c r="K57" s="261">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="287"/>
+      <c r="L57" s="261"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -10112,18 +10121,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10133,6 +10130,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11563,10 +11572,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M7:M8"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11591,23 +11600,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="264" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11617,21 +11626,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="267"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="268"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11646,14 +11655,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11723,37 +11732,45 @@
       <c r="B6" s="24">
         <v>44987</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
       <c r="D6" s="38"/>
       <c r="E6" s="27">
         <v>44987</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>61565</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30">
         <v>44987</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>57</v>
+      </c>
       <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
       <c r="L6" s="41"/>
       <c r="M6" s="33">
-        <v>0</v>
+        <f>19000+39619</f>
+        <v>58619</v>
       </c>
       <c r="N6" s="34">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="235">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>63465</v>
       </c>
       <c r="Q6" s="236">
-        <f t="shared" ref="Q5:Q44" si="0">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="238">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="237">
+        <v>1900</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -11763,37 +11780,46 @@
       <c r="B7" s="24">
         <v>44988</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="25">
+        <v>8209</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="27">
         <v>44988</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>110006</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
         <v>44988</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>581</v>
+      </c>
       <c r="J7" s="39"/>
       <c r="K7" s="43"/>
       <c r="L7" s="41"/>
       <c r="M7" s="33">
-        <v>0</v>
+        <f>50000+49987</f>
+        <v>99987</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>2607</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="235">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="238">
-        <v>0</v>
+        <v>111384</v>
+      </c>
+      <c r="Q7" s="243">
+        <f>P7-F7-378</f>
+        <v>1000</v>
+      </c>
+      <c r="R7" s="237">
+        <v>378</v>
       </c>
       <c r="S7" s="37"/>
     </row>
@@ -11802,37 +11828,43 @@
       <c r="B8" s="24">
         <v>44989</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
       <c r="D8" s="42"/>
       <c r="E8" s="27">
         <v>44989</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>47183</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30">
         <v>44989</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>974</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="41"/>
       <c r="M8" s="33">
-        <v>0</v>
+        <f>7000+36335</f>
+        <v>43335</v>
       </c>
       <c r="N8" s="34">
-        <v>0</v>
+        <v>4278</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="235">
-        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <f t="shared" ref="P8:P45" si="0">N8+M8+L8+I8+C8</f>
+        <v>48587</v>
       </c>
       <c r="Q8" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="238">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="237">
+        <v>1404</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -11841,37 +11873,43 @@
       <c r="B9" s="24">
         <v>44990</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
       <c r="D9" s="46"/>
       <c r="E9" s="27">
         <v>44990</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>94515</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30">
         <v>44990</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>590</v>
+      </c>
       <c r="J9" s="39"/>
       <c r="K9" s="47"/>
       <c r="L9" s="41"/>
       <c r="M9" s="33">
-        <v>0</v>
+        <f>97000+14044</f>
+        <v>111044</v>
       </c>
       <c r="N9" s="34">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="235">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>112255</v>
       </c>
       <c r="Q9" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="238">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="237">
+        <v>17740</v>
       </c>
       <c r="S9" s="37"/>
     </row>
@@ -11880,22 +11918,31 @@
       <c r="B10" s="24">
         <v>44991</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="25">
+        <v>2940</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" s="27">
         <v>44991</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>138469</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
         <v>44991</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="31">
+        <v>616</v>
+      </c>
       <c r="J10" s="39"/>
       <c r="K10" s="48"/>
       <c r="L10" s="49"/>
       <c r="M10" s="33">
-        <v>0</v>
+        <f>16000+70000+48913</f>
+        <v>134913</v>
       </c>
       <c r="N10" s="34">
         <v>0</v>
@@ -11903,10 +11950,10 @@
       <c r="O10" s="35"/>
       <c r="P10" s="235">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>138469</v>
       </c>
       <c r="Q10" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q6:Q44" si="1">P10-F10</f>
         <v>0</v>
       </c>
       <c r="R10" s="238">
@@ -11922,34 +11969,47 @@
       <c r="B11" s="24">
         <v>44992</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
       <c r="D11" s="38"/>
       <c r="E11" s="27">
         <v>44992</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>106309</v>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>44992</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="41"/>
+      <c r="I11" s="31">
+        <v>567</v>
+      </c>
+      <c r="J11" s="44">
+        <v>44992</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="41">
+        <v>7816.67</v>
+      </c>
       <c r="M11" s="33">
-        <v>0</v>
+        <f>27500+68703</f>
+        <v>96203</v>
       </c>
       <c r="N11" s="34">
-        <v>0</v>
+        <v>1723</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="235">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>106309.67</v>
       </c>
       <c r="Q11" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.66999999999825377</v>
       </c>
       <c r="R11" s="238">
         <v>0</v>
@@ -11961,33 +12021,42 @@
       <c r="B12" s="24">
         <v>44993</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="25">
+        <v>485</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="E12" s="27">
         <v>44993</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>22101</v>
+      </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>44993</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>629</v>
+      </c>
       <c r="J12" s="39"/>
       <c r="K12" s="51"/>
       <c r="L12" s="41"/>
       <c r="M12" s="33">
-        <v>0</v>
+        <f>6000+14949</f>
+        <v>20949</v>
       </c>
       <c r="N12" s="34">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="235">
+        <f t="shared" si="0"/>
+        <v>22101</v>
+      </c>
+      <c r="Q12" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="238">
@@ -12000,33 +12069,40 @@
       <c r="B13" s="24">
         <v>44994</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
       <c r="D13" s="42"/>
       <c r="E13" s="27">
         <v>44994</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>77215</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>44994</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>312</v>
+      </c>
       <c r="J13" s="39"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>37000+39703</f>
+        <v>76703</v>
       </c>
       <c r="N13" s="34">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
+        <f t="shared" si="0"/>
+        <v>77215</v>
+      </c>
+      <c r="Q13" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="238">
@@ -12039,34 +12115,43 @@
       <c r="B14" s="24">
         <v>44995</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="25">
+        <v>12818</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="27">
         <v>44995</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>144672</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>44995</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>560</v>
+      </c>
       <c r="J14" s="39"/>
       <c r="K14" s="45"/>
       <c r="L14" s="41"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <f>25000+106295</f>
+        <v>131295</v>
       </c>
       <c r="N14" s="34">
         <v>0</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="235">
+        <f t="shared" si="0"/>
+        <v>144673</v>
+      </c>
+      <c r="Q14" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="238">
         <v>0</v>
@@ -12078,33 +12163,48 @@
       <c r="B15" s="24">
         <v>44996</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="25">
+        <v>1701</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>161</v>
+      </c>
       <c r="E15" s="27">
         <v>44996</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>83147</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>44996</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="41"/>
+      <c r="I15" s="31">
+        <v>647</v>
+      </c>
+      <c r="J15" s="39">
+        <v>44996</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="41">
+        <v>7900</v>
+      </c>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>25000+42244</f>
+        <v>67244</v>
       </c>
       <c r="N15" s="34">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="235">
+        <f t="shared" si="0"/>
+        <v>83147</v>
+      </c>
+      <c r="Q15" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="238">
@@ -12117,34 +12217,41 @@
       <c r="B16" s="24">
         <v>44997</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
       <c r="D16" s="52"/>
       <c r="E16" s="27">
         <v>44997</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>132329</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>44997</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>535</v>
+      </c>
       <c r="J16" s="39"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="33">
-        <v>0</v>
+        <f>53000+51000+25100</f>
+        <v>129100</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>2696</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
+        <f t="shared" si="0"/>
+        <v>132331</v>
+      </c>
+      <c r="Q16" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="236">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="238">
         <v>0</v>
@@ -12156,33 +12263,40 @@
       <c r="B17" s="24">
         <v>44998</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="27">
         <v>44998</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>161282</v>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>44998</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="31">
+        <v>643</v>
+      </c>
       <c r="J17" s="39"/>
       <c r="K17" s="53"/>
       <c r="L17" s="49"/>
       <c r="M17" s="33">
-        <v>0</v>
+        <f>36000+124639</f>
+        <v>160639</v>
       </c>
       <c r="N17" s="34">
         <v>0</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
+        <f t="shared" si="0"/>
+        <v>161282</v>
+      </c>
+      <c r="Q17" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="238">
@@ -12195,7 +12309,9 @@
       <c r="B18" s="24">
         <v>44999</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
       <c r="D18" s="38"/>
       <c r="E18" s="27">
         <v>44999</v>
@@ -12217,11 +12333,11 @@
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="238">
@@ -12234,7 +12350,9 @@
       <c r="B19" s="24">
         <v>45000</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
       <c r="D19" s="38"/>
       <c r="E19" s="27">
         <v>45000</v>
@@ -12256,11 +12374,11 @@
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="238">
@@ -12273,7 +12391,9 @@
       <c r="B20" s="24">
         <v>45001</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
       <c r="D20" s="38"/>
       <c r="E20" s="27">
         <v>45001</v>
@@ -12295,11 +12415,11 @@
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="238">
@@ -12312,7 +12432,9 @@
       <c r="B21" s="24">
         <v>45002</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
       <c r="D21" s="38"/>
       <c r="E21" s="27">
         <v>45002</v>
@@ -12334,11 +12456,11 @@
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="238">
@@ -12351,7 +12473,9 @@
       <c r="B22" s="24">
         <v>45003</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
       <c r="D22" s="38"/>
       <c r="E22" s="27">
         <v>45003</v>
@@ -12373,11 +12497,11 @@
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="238">
@@ -12390,7 +12514,9 @@
       <c r="B23" s="24">
         <v>45004</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
       <c r="D23" s="46"/>
       <c r="E23" s="27">
         <v>45004</v>
@@ -12412,11 +12538,11 @@
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="238">
@@ -12429,7 +12555,9 @@
       <c r="B24" s="24">
         <v>45005</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
       <c r="D24" s="42"/>
       <c r="E24" s="27">
         <v>45005</v>
@@ -12451,11 +12579,11 @@
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="238">
@@ -12468,7 +12596,9 @@
       <c r="B25" s="24">
         <v>45006</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="38"/>
       <c r="E25" s="27">
         <v>45006</v>
@@ -12490,11 +12620,11 @@
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="238">
@@ -12507,7 +12637,9 @@
       <c r="B26" s="24">
         <v>45007</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
       <c r="D26" s="38"/>
       <c r="E26" s="27">
         <v>45007</v>
@@ -12529,11 +12661,11 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" s="238">
@@ -12546,7 +12678,9 @@
       <c r="B27" s="24">
         <v>45008</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
       <c r="D27" s="42"/>
       <c r="E27" s="27">
         <v>45008</v>
@@ -12568,11 +12702,11 @@
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="238">
@@ -12585,7 +12719,9 @@
       <c r="B28" s="24">
         <v>45009</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
       <c r="D28" s="42"/>
       <c r="E28" s="27">
         <v>45009</v>
@@ -12607,11 +12743,11 @@
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="238">
@@ -12624,7 +12760,9 @@
       <c r="B29" s="24">
         <v>45010</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
       <c r="D29" s="72"/>
       <c r="E29" s="27">
         <v>45010</v>
@@ -12646,11 +12784,11 @@
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="238">
@@ -12664,7 +12802,9 @@
       <c r="B30" s="24">
         <v>45011</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
       <c r="D30" s="72"/>
       <c r="E30" s="27">
         <v>45011</v>
@@ -12686,11 +12826,11 @@
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="238">
@@ -12703,7 +12843,9 @@
       <c r="B31" s="24">
         <v>45012</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
       <c r="D31" s="77"/>
       <c r="E31" s="27">
         <v>45012</v>
@@ -12725,11 +12867,11 @@
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="238">
@@ -12742,7 +12884,9 @@
       <c r="B32" s="24">
         <v>45013</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
       <c r="D32" s="82"/>
       <c r="E32" s="27">
         <v>45013</v>
@@ -12764,11 +12908,11 @@
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="238">
@@ -12781,7 +12925,9 @@
       <c r="B33" s="24">
         <v>45014</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
       <c r="D33" s="80"/>
       <c r="E33" s="27">
         <v>45014</v>
@@ -12803,11 +12949,11 @@
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="238">
@@ -12820,7 +12966,9 @@
       <c r="B34" s="24">
         <v>45015</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
       <c r="D34" s="82"/>
       <c r="E34" s="27">
         <v>45015</v>
@@ -12842,11 +12990,11 @@
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="238">
@@ -12857,7 +13005,9 @@
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
       <c r="D35" s="77"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -12875,11 +13025,11 @@
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="238">
@@ -12890,7 +13040,9 @@
     <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
       <c r="D36" s="85"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
@@ -12908,11 +13060,11 @@
       </c>
       <c r="O36" s="35"/>
       <c r="P36" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="236">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R36" s="238">
@@ -12923,7 +13075,9 @@
     <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
       <c r="D37" s="82"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
@@ -12944,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="238">
@@ -12976,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="238">
@@ -13008,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="238">
@@ -13040,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="238">
@@ -13072,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="238">
@@ -13104,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="236">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="238">
@@ -13133,11 +13287,11 @@
       </c>
       <c r="O43" s="35"/>
       <c r="P43" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="241">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="242">
@@ -13164,11 +13318,11 @@
       <c r="N44" s="93"/>
       <c r="O44" s="35"/>
       <c r="P44" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R44" s="13">
@@ -13189,25 +13343,25 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="274">
+      <c r="M45" s="269">
         <f>SUM(M5:M39)</f>
-        <v>42889</v>
-      </c>
-      <c r="N45" s="259">
+        <v>1172920</v>
+      </c>
+      <c r="N45" s="280">
         <f>SUM(N5:N39)</f>
-        <v>113</v>
+        <v>22720</v>
       </c>
       <c r="P45" s="98">
-        <f t="shared" si="1"/>
-        <v>43002</v>
+        <f t="shared" si="0"/>
+        <v>1195640</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>1003.6699999999983</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
-        <v>7003</v>
+        <v>28425</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13223,8 +13377,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="275"/>
-      <c r="N46" s="260"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="281"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13274,7 +13428,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>4174</v>
+        <v>30327</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -13282,7 +13436,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>40846</v>
+        <v>1219639</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -13290,7 +13444,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>673</v>
+        <v>7384</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="129" t="s">
@@ -13298,7 +13452,7 @@
       </c>
       <c r="L49" s="130">
         <f>SUM(L5:L48)</f>
-        <v>0</v>
+        <v>15716.67</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -13316,32 +13470,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="261" t="s">
+      <c r="H51" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="262"/>
+      <c r="I51" s="283"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="263">
+      <c r="K51" s="284">
         <f>I49+L49</f>
-        <v>673</v>
-      </c>
-      <c r="L51" s="264"/>
-      <c r="M51" s="265">
+        <v>23100.67</v>
+      </c>
+      <c r="L51" s="285"/>
+      <c r="M51" s="286">
         <f>N45+M45</f>
-        <v>43002</v>
-      </c>
-      <c r="N51" s="266"/>
+        <v>1195640</v>
+      </c>
+      <c r="N51" s="287"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="258" t="s">
+      <c r="D52" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="279"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>35999</v>
+        <v>1166211.33</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -13349,22 +13503,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276" t="s">
+      <c r="D53" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="276"/>
+      <c r="E53" s="250"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="252"/>
+      <c r="K53" s="253">
         <f>F55+F56+F57</f>
-        <v>35999</v>
-      </c>
-      <c r="L53" s="280"/>
+        <v>1166211.33</v>
+      </c>
+      <c r="L53" s="254"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13388,18 +13542,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>35999</v>
+        <v>1166211.33</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="281">
+      <c r="K55" s="255">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="282"/>
+      <c r="L55" s="256"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13414,22 +13568,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="283" t="s">
+      <c r="D57" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="284"/>
+      <c r="E57" s="258"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="285" t="s">
+      <c r="I57" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="286"/>
-      <c r="K57" s="287">
+      <c r="J57" s="260"/>
+      <c r="K57" s="261">
         <f>K53+K55</f>
-        <v>-194555.55</v>
-      </c>
-      <c r="L57" s="287"/>
+        <v>935656.78</v>
+      </c>
+      <c r="L57" s="261"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13554,20 +13708,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
@@ -13575,6 +13715,20 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>NOMINA # 10</t>
+  </si>
+  <si>
+    <t>NOMINA # 11</t>
   </si>
 </sst>
 </file>
@@ -2514,6 +2517,84 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2549,84 +2630,6 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4236,23 +4239,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4262,21 +4265,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4291,14 +4294,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4308,11 +4311,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="251"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6117,11 +6120,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="269">
+      <c r="M49" s="274">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="280">
+      <c r="N49" s="259">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6156,8 +6159,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="270"/>
-      <c r="N50" s="281"/>
+      <c r="M50" s="275"/>
+      <c r="N50" s="260"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6249,29 +6252,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="282" t="s">
+      <c r="H55" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="283"/>
+      <c r="I55" s="262"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="284">
+      <c r="K55" s="263">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="285"/>
-      <c r="M55" s="286">
+      <c r="L55" s="264"/>
+      <c r="M55" s="265">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="287"/>
+      <c r="N55" s="266"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="279" t="s">
+      <c r="D56" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="258"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6282,22 +6285,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="250" t="s">
+      <c r="D57" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="276"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="251" t="s">
+      <c r="I57" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="252"/>
-      <c r="K57" s="253">
+      <c r="J57" s="278"/>
+      <c r="K57" s="279">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="254"/>
+      <c r="L57" s="280"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6328,11 +6331,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="255">
+      <c r="K59" s="281">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="256"/>
+      <c r="L59" s="282"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -6349,22 +6352,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="257" t="s">
+      <c r="D61" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="258"/>
+      <c r="E61" s="284"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="259" t="s">
+      <c r="I61" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="260"/>
-      <c r="K61" s="261">
+      <c r="J61" s="286"/>
+      <c r="K61" s="287">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="261"/>
+      <c r="L61" s="287"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -6489,6 +6492,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6498,18 +6513,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7877,23 +7880,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7903,21 +7906,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7932,14 +7935,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -9754,11 +9757,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="269">
+      <c r="M45" s="274">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="280">
+      <c r="N45" s="259">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9788,8 +9791,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="281"/>
+      <c r="M46" s="275"/>
+      <c r="N46" s="260"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -9881,29 +9884,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="282" t="s">
+      <c r="H51" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="283"/>
+      <c r="I51" s="262"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="284">
+      <c r="K51" s="263">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="285"/>
-      <c r="M51" s="286">
+      <c r="L51" s="264"/>
+      <c r="M51" s="265">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="287"/>
+      <c r="N51" s="266"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="279" t="s">
+      <c r="D52" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="279"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -9914,22 +9917,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="250" t="s">
+      <c r="D53" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="250"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="251" t="s">
+      <c r="I53" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="252"/>
-      <c r="K53" s="253">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="254"/>
+      <c r="L53" s="280"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -9960,11 +9963,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="255">
+      <c r="K55" s="281">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="256"/>
+      <c r="L55" s="282"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -9981,22 +9984,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="257" t="s">
+      <c r="D57" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="258"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="259" t="s">
+      <c r="I57" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="260"/>
-      <c r="K57" s="261">
+      <c r="J57" s="286"/>
+      <c r="K57" s="287">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="261"/>
+      <c r="L57" s="287"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -10121,6 +10124,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10130,18 +10145,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11572,10 +11575,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11600,23 +11603,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="262"/>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="267"/>
+      <c r="C1" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263"/>
+      <c r="B2" s="268"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11626,21 +11629,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="267"/>
+      <c r="B3" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="272"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="268"/>
+      <c r="I3" s="273"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="250" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11655,14 +11658,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="253"/>
+      <c r="H4" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11953,7 +11956,7 @@
         <v>138469</v>
       </c>
       <c r="Q10" s="236">
-        <f t="shared" ref="Q6:Q44" si="1">P10-F10</f>
+        <f t="shared" ref="Q10:Q44" si="1">P10-F10</f>
         <v>0</v>
       </c>
       <c r="R10" s="238">
@@ -12310,23 +12313,30 @@
         <v>44999</v>
       </c>
       <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38"/>
+        <v>3210</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="27">
         <v>44999</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>124114</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>44999</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>222</v>
+      </c>
       <c r="J18" s="39"/>
       <c r="K18" s="54"/>
       <c r="L18" s="41"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>18500+102182</f>
+        <v>120682</v>
       </c>
       <c r="N18" s="34">
         <v>0</v>
@@ -12334,7 +12344,7 @@
       <c r="O18" s="35"/>
       <c r="P18" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124114</v>
       </c>
       <c r="Q18" s="236">
         <f t="shared" si="1"/>
@@ -12357,25 +12367,30 @@
       <c r="E19" s="27">
         <v>45000</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>44605</v>
+      </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>45000</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>593</v>
+      </c>
       <c r="J19" s="39"/>
       <c r="K19" s="55"/>
       <c r="L19" s="56"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>15000+27417</f>
+        <v>42417</v>
       </c>
       <c r="N19" s="34">
-        <v>0</v>
+        <v>1595</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44605</v>
       </c>
       <c r="Q19" s="236">
         <f t="shared" si="1"/>
@@ -12398,25 +12413,30 @@
       <c r="E20" s="27">
         <v>45001</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>112609</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>45001</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>523</v>
+      </c>
       <c r="J20" s="39"/>
       <c r="K20" s="57"/>
       <c r="L20" s="49"/>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>69485+41600</f>
+        <v>111085</v>
       </c>
       <c r="N20" s="34">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112609</v>
       </c>
       <c r="Q20" s="236">
         <f t="shared" si="1"/>
@@ -12433,31 +12453,38 @@
         <v>45002</v>
       </c>
       <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="38"/>
+        <v>12939</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="E21" s="27">
         <v>45002</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>124638</v>
+      </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>45002</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>127</v>
+      </c>
       <c r="J21" s="39"/>
       <c r="K21" s="58"/>
       <c r="L21" s="49"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>95992+12000</f>
+        <v>107992</v>
       </c>
       <c r="N21" s="34">
-        <v>0</v>
+        <v>3580</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124638</v>
       </c>
       <c r="Q21" s="236">
         <f t="shared" si="1"/>
@@ -12480,25 +12507,37 @@
       <c r="E22" s="27">
         <v>45003</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>76608</v>
+      </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>45003</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="59"/>
+      <c r="I22" s="31">
+        <v>1063</v>
+      </c>
+      <c r="J22" s="39">
+        <v>45003</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="59">
+        <v>8386</v>
+      </c>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>31103+28000</f>
+        <v>59103</v>
       </c>
       <c r="N22" s="34">
-        <v>0</v>
+        <f>4936+3120</f>
+        <v>8056</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76608</v>
       </c>
       <c r="Q22" s="236">
         <f t="shared" si="1"/>
@@ -12521,25 +12560,30 @@
       <c r="E23" s="27">
         <v>45004</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>116707</v>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <v>45004</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>500</v>
+      </c>
       <c r="J23" s="60"/>
       <c r="K23" s="61"/>
       <c r="L23" s="49"/>
       <c r="M23" s="33">
-        <v>0</v>
+        <f>56432+56000</f>
+        <v>112432</v>
       </c>
       <c r="N23" s="34">
-        <v>0</v>
+        <v>3775</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116707</v>
       </c>
       <c r="Q23" s="236">
         <f t="shared" si="1"/>
@@ -12562,25 +12606,30 @@
       <c r="E24" s="27">
         <v>45005</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>167012</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
         <v>45005</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="31">
+        <v>1148</v>
+      </c>
       <c r="J24" s="62"/>
       <c r="K24" s="63"/>
       <c r="L24" s="64"/>
       <c r="M24" s="33">
-        <v>0</v>
+        <f>123478+41200</f>
+        <v>164678</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167012</v>
       </c>
       <c r="Q24" s="236">
         <f t="shared" si="1"/>
@@ -12603,25 +12652,31 @@
       <c r="E25" s="27">
         <v>45006</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>98911</v>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
         <v>45006</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>18</v>
+      </c>
       <c r="J25" s="65"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67"/>
       <c r="M25" s="33">
-        <v>0</v>
+        <f>5300+92318</f>
+        <v>97618</v>
       </c>
       <c r="N25" s="34">
-        <v>0</v>
+        <f>190+1085</f>
+        <v>1275</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98911</v>
       </c>
       <c r="Q25" s="236">
         <f t="shared" si="1"/>
@@ -12638,31 +12693,37 @@
         <v>45007</v>
       </c>
       <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38"/>
+        <v>3480</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="27">
         <v>45007</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>62059</v>
+      </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30">
         <v>45007</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>64</v>
+      </c>
       <c r="J26" s="39"/>
       <c r="K26" s="63"/>
       <c r="L26" s="49"/>
       <c r="M26" s="33">
-        <v>0</v>
+        <v>57072</v>
       </c>
       <c r="N26" s="34">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62059</v>
       </c>
       <c r="Q26" s="236">
         <f t="shared" si="1"/>
@@ -13343,17 +13404,17 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="269">
+      <c r="M45" s="274">
         <f>SUM(M5:M39)</f>
-        <v>1172920</v>
-      </c>
-      <c r="N45" s="280">
+        <v>2045999</v>
+      </c>
+      <c r="N45" s="259">
         <f>SUM(N5:N39)</f>
-        <v>22720</v>
+        <v>44631</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>1195640</v>
+        <v>2090630</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
@@ -13377,8 +13438,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="281"/>
+      <c r="M46" s="275"/>
+      <c r="N46" s="260"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13428,7 +13489,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>30327</v>
+        <v>49956</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -13436,7 +13497,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>1219639</v>
+        <v>2146902</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -13444,7 +13505,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>7384</v>
+        <v>11642</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="129" t="s">
@@ -13452,7 +13513,7 @@
       </c>
       <c r="L49" s="130">
         <f>SUM(L5:L48)</f>
-        <v>15716.67</v>
+        <v>24102.67</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -13470,32 +13531,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="282" t="s">
+      <c r="H51" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="283"/>
+      <c r="I51" s="262"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="284">
+      <c r="K51" s="263">
         <f>I49+L49</f>
-        <v>23100.67</v>
-      </c>
-      <c r="L51" s="285"/>
-      <c r="M51" s="286">
+        <v>35744.67</v>
+      </c>
+      <c r="L51" s="264"/>
+      <c r="M51" s="265">
         <f>N45+M45</f>
-        <v>1195640</v>
-      </c>
-      <c r="N51" s="287"/>
+        <v>2090630</v>
+      </c>
+      <c r="N51" s="266"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="279" t="s">
+      <c r="D52" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="279"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>1166211.33</v>
+        <v>2061201.33</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -13503,22 +13564,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="250" t="s">
+      <c r="D53" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="250"/>
+      <c r="E53" s="276"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="251" t="s">
+      <c r="I53" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="252"/>
-      <c r="K53" s="253">
+      <c r="J53" s="278"/>
+      <c r="K53" s="279">
         <f>F55+F56+F57</f>
-        <v>1166211.33</v>
-      </c>
-      <c r="L53" s="254"/>
+        <v>2061201.33</v>
+      </c>
+      <c r="L53" s="280"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13542,18 +13603,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>1166211.33</v>
+        <v>2061201.33</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="255">
+      <c r="K55" s="281">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="256"/>
+      <c r="L55" s="282"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13568,22 +13629,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="257" t="s">
+      <c r="D57" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="258"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="259" t="s">
+      <c r="I57" s="285" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="260"/>
-      <c r="K57" s="261">
+      <c r="J57" s="286"/>
+      <c r="K57" s="287">
         <f>K53+K55</f>
-        <v>935656.78</v>
-      </c>
-      <c r="L57" s="261"/>
+        <v>1830646.78</v>
+      </c>
+      <c r="L57" s="287"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13708,18 +13769,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13729,6 +13778,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -697,6 +697,18 @@
   </si>
   <si>
     <t>NOMINA # 11</t>
+  </si>
+  <si>
+    <t>chaorizo-queso gouda</t>
+  </si>
+  <si>
+    <t>NOMINA # 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONGANIZA-COMPRAS CENTRAL </t>
+  </si>
+  <si>
+    <t>proteccion civil Marzo</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="69">
     <border>
@@ -2038,7 +2056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2517,6 +2535,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4239,23 +4259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="270"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4265,21 +4285,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="274"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="275"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="252" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4294,14 +4314,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4311,11 +4331,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="251"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="253"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6120,11 +6140,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="274">
+      <c r="M49" s="276">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="259">
+      <c r="N49" s="261">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6159,8 +6179,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="275"/>
-      <c r="N50" s="260"/>
+      <c r="M50" s="277"/>
+      <c r="N50" s="262"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6252,29 +6272,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="261" t="s">
+      <c r="H55" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="262"/>
+      <c r="I55" s="264"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="263">
+      <c r="K55" s="265">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="264"/>
-      <c r="M55" s="265">
+      <c r="L55" s="266"/>
+      <c r="M55" s="267">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="266"/>
+      <c r="N55" s="268"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="258" t="s">
+      <c r="D56" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="258"/>
+      <c r="E56" s="260"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6285,22 +6305,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="276" t="s">
+      <c r="D57" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="276"/>
+      <c r="E57" s="278"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="277" t="s">
+      <c r="I57" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="278"/>
-      <c r="K57" s="279">
+      <c r="J57" s="280"/>
+      <c r="K57" s="281">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="280"/>
+      <c r="L57" s="282"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6331,11 +6351,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="281">
+      <c r="K59" s="283">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="282"/>
+      <c r="L59" s="284"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -6352,22 +6372,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="283" t="s">
+      <c r="D61" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="284"/>
+      <c r="E61" s="286"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="285" t="s">
+      <c r="I61" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="286"/>
-      <c r="K61" s="287">
+      <c r="J61" s="288"/>
+      <c r="K61" s="289">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="287"/>
+      <c r="L61" s="289"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -7880,23 +7900,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="271" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="270"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7906,21 +7926,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="274"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="275"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="252" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7935,14 +7955,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7952,11 +7972,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="289" t="s">
+      <c r="P4" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="288"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9757,11 +9777,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="274">
+      <c r="M45" s="276">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="259">
+      <c r="N45" s="261">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9791,8 +9811,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="275"/>
-      <c r="N46" s="260"/>
+      <c r="M46" s="277"/>
+      <c r="N46" s="262"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -9884,29 +9904,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="261" t="s">
+      <c r="H51" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="262"/>
+      <c r="I51" s="264"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="263">
+      <c r="K51" s="265">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="264"/>
-      <c r="M51" s="265">
+      <c r="L51" s="266"/>
+      <c r="M51" s="267">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="266"/>
+      <c r="N51" s="268"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="258" t="s">
+      <c r="D52" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="260"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -9917,22 +9937,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276" t="s">
+      <c r="D53" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="276"/>
+      <c r="E53" s="278"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="280"/>
+      <c r="K53" s="281">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="280"/>
+      <c r="L53" s="282"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -9963,11 +9983,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="281">
+      <c r="K55" s="283">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="282"/>
+      <c r="L55" s="284"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -9984,22 +10004,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="283" t="s">
+      <c r="D57" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="284"/>
+      <c r="E57" s="286"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="285" t="s">
+      <c r="I57" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="286"/>
-      <c r="K57" s="287">
+      <c r="J57" s="288"/>
+      <c r="K57" s="289">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="287"/>
+      <c r="L57" s="289"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -11575,10 +11595,10 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11603,23 +11623,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="267"/>
-      <c r="C1" s="269" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="271" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="268"/>
+      <c r="B2" s="270"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11629,21 +11649,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="272"/>
+      <c r="B3" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="274"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="273"/>
+      <c r="I3" s="275"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="250" t="s">
+      <c r="R3" s="252" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11658,14 +11678,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="E4" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="253"/>
-      <c r="H4" s="254" t="s">
+      <c r="F4" s="255"/>
+      <c r="H4" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="257"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11675,11 +11695,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="289" t="s">
+      <c r="P4" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="288"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12740,23 +12760,30 @@
         <v>45008</v>
       </c>
       <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="42"/>
+        <v>2655</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>164</v>
+      </c>
       <c r="E27" s="27">
         <v>45008</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>118074</v>
+      </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30">
         <v>45008</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>18</v>
+      </c>
       <c r="J27" s="68"/>
       <c r="K27" s="69"/>
       <c r="L27" s="67"/>
       <c r="M27" s="33">
-        <v>0</v>
+        <f>22700+92701</f>
+        <v>115401</v>
       </c>
       <c r="N27" s="34">
         <v>0</v>
@@ -12764,7 +12791,7 @@
       <c r="O27" s="35"/>
       <c r="P27" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118074</v>
       </c>
       <c r="Q27" s="236">
         <f t="shared" si="1"/>
@@ -12781,31 +12808,38 @@
         <v>45009</v>
       </c>
       <c r="C28" s="25">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42"/>
+        <v>18707</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="E28" s="27">
         <v>45009</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>109480</v>
+      </c>
       <c r="G28" s="29"/>
       <c r="H28" s="30">
         <v>45009</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>116</v>
+      </c>
       <c r="J28" s="70"/>
       <c r="K28" s="71"/>
       <c r="L28" s="67"/>
       <c r="M28" s="33">
-        <v>0</v>
+        <f>16000+70989</f>
+        <v>86989</v>
       </c>
       <c r="N28" s="34">
-        <v>0</v>
+        <v>3668</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109480</v>
       </c>
       <c r="Q28" s="236">
         <f t="shared" si="1"/>
@@ -12828,29 +12862,40 @@
       <c r="E29" s="27">
         <v>45010</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>74820</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>45010</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="33">
-        <v>0</v>
+      <c r="I29" s="31">
+        <v>142</v>
+      </c>
+      <c r="J29" s="68">
+        <v>45010</v>
+      </c>
+      <c r="K29" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="67">
+        <v>12045</v>
+      </c>
+      <c r="M29" s="250">
+        <f>30700</f>
+        <v>30700</v>
       </c>
       <c r="N29" s="34">
-        <v>0</v>
+        <v>8222</v>
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="236">
+        <v>51109</v>
+      </c>
+      <c r="Q29" s="251">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-23711</v>
       </c>
       <c r="R29" s="238">
         <v>0</v>
@@ -12864,35 +12909,42 @@
         <v>45011</v>
       </c>
       <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="72"/>
+        <v>9514</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>166</v>
+      </c>
       <c r="E30" s="27">
         <v>45011</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>131563</v>
+      </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30">
         <v>45011</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
       <c r="J30" s="74"/>
       <c r="K30" s="75"/>
       <c r="L30" s="76"/>
-      <c r="M30" s="33">
-        <v>0</v>
+      <c r="M30" s="250">
+        <f>33777</f>
+        <v>33777</v>
       </c>
       <c r="N30" s="34">
-        <v>0</v>
+        <v>4272</v>
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="236">
+        <v>47563</v>
+      </c>
+      <c r="Q30" s="251">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-84000</v>
       </c>
       <c r="R30" s="238">
         <v>0</v>
@@ -12911,17 +12963,22 @@
       <c r="E31" s="27">
         <v>45012</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>189808</v>
+      </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30">
         <v>45012</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="31">
+        <v>152</v>
+      </c>
       <c r="J31" s="74"/>
       <c r="K31" s="78"/>
       <c r="L31" s="79"/>
       <c r="M31" s="33">
-        <v>0</v>
+        <f>21500+168156</f>
+        <v>189656</v>
       </c>
       <c r="N31" s="34">
         <v>0</v>
@@ -12929,7 +12986,7 @@
       <c r="O31" s="35"/>
       <c r="P31" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>189808</v>
       </c>
       <c r="Q31" s="236">
         <f t="shared" si="1"/>
@@ -12952,25 +13009,30 @@
       <c r="E32" s="27">
         <v>45013</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>102688</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30">
         <v>45013</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>55</v>
+      </c>
       <c r="J32" s="74"/>
       <c r="K32" s="75"/>
       <c r="L32" s="76"/>
       <c r="M32" s="33">
-        <v>0</v>
+        <f>19000+83066</f>
+        <v>102066</v>
       </c>
       <c r="N32" s="34">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102688</v>
       </c>
       <c r="Q32" s="236">
         <f t="shared" si="1"/>
@@ -12993,25 +13055,29 @@
       <c r="E33" s="27">
         <v>45014</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28">
+        <v>24205</v>
+      </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30">
         <v>45014</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="31">
+        <v>59</v>
+      </c>
       <c r="J33" s="74"/>
       <c r="K33" s="78"/>
       <c r="L33" s="81"/>
       <c r="M33" s="33">
-        <v>0</v>
+        <v>24084</v>
       </c>
       <c r="N33" s="34">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24205</v>
       </c>
       <c r="Q33" s="236">
         <f t="shared" si="1"/>
@@ -13022,7 +13088,7 @@
       </c>
       <c r="S33" s="37"/>
     </row>
-    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="24">
         <v>45015</v>
@@ -13034,17 +13100,27 @@
       <c r="E34" s="27">
         <v>45015</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28">
+        <v>72817</v>
+      </c>
       <c r="G34" s="29"/>
       <c r="H34" s="30">
         <v>45015</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
+      <c r="I34" s="31">
+        <v>37</v>
+      </c>
+      <c r="J34" s="74">
+        <v>45015</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="84">
+        <v>11500</v>
+      </c>
       <c r="M34" s="33">
-        <v>0</v>
+        <v>61280</v>
       </c>
       <c r="N34" s="34">
         <v>0</v>
@@ -13052,7 +13128,7 @@
       <c r="O34" s="35"/>
       <c r="P34" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72817</v>
       </c>
       <c r="Q34" s="236">
         <f t="shared" si="1"/>
@@ -13404,21 +13480,21 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="274">
+      <c r="M45" s="276">
         <f>SUM(M5:M39)</f>
-        <v>2045999</v>
-      </c>
-      <c r="N45" s="259">
+        <v>2689952</v>
+      </c>
+      <c r="N45" s="261">
         <f>SUM(N5:N39)</f>
-        <v>44631</v>
+        <v>61422</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>2090630</v>
+        <v>2751374</v>
       </c>
       <c r="Q45" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>1003.6699999999983</v>
+        <v>-106707.33</v>
       </c>
       <c r="R45" s="99">
         <f>SUM(R5:R39)</f>
@@ -13438,8 +13514,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="275"/>
-      <c r="N46" s="260"/>
+      <c r="M46" s="277"/>
+      <c r="N46" s="262"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -13489,7 +13565,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>49956</v>
+        <v>80832</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -13497,7 +13573,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>2146902</v>
+        <v>2970357</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -13505,7 +13581,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>11642</v>
+        <v>12221</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="129" t="s">
@@ -13513,7 +13589,7 @@
       </c>
       <c r="L49" s="130">
         <f>SUM(L5:L48)</f>
-        <v>24102.67</v>
+        <v>47647.67</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -13531,32 +13607,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="261" t="s">
+      <c r="H51" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="262"/>
+      <c r="I51" s="264"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="263">
+      <c r="K51" s="265">
         <f>I49+L49</f>
-        <v>35744.67</v>
-      </c>
-      <c r="L51" s="264"/>
-      <c r="M51" s="265">
+        <v>59868.67</v>
+      </c>
+      <c r="L51" s="266"/>
+      <c r="M51" s="267">
         <f>N45+M45</f>
-        <v>2090630</v>
-      </c>
-      <c r="N51" s="266"/>
+        <v>2751374</v>
+      </c>
+      <c r="N51" s="268"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="258" t="s">
+      <c r="D52" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="260"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2061201.33</v>
+        <v>2829656.33</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -13564,22 +13640,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="276" t="s">
+      <c r="D53" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="276"/>
+      <c r="E53" s="278"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="277" t="s">
+      <c r="I53" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="278"/>
-      <c r="K53" s="279">
+      <c r="J53" s="280"/>
+      <c r="K53" s="281">
         <f>F55+F56+F57</f>
-        <v>2061201.33</v>
-      </c>
-      <c r="L53" s="280"/>
+        <v>2829656.33</v>
+      </c>
+      <c r="L53" s="282"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -13603,18 +13679,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>2061201.33</v>
+        <v>2829656.33</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="281">
+      <c r="K55" s="283">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="282"/>
+      <c r="L55" s="284"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -13629,22 +13705,22 @@
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150"/>
-      <c r="D57" s="283" t="s">
+      <c r="D57" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="284"/>
+      <c r="E57" s="286"/>
       <c r="F57" s="151">
         <v>0</v>
       </c>
-      <c r="I57" s="285" t="s">
+      <c r="I57" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="286"/>
-      <c r="K57" s="287">
+      <c r="J57" s="288"/>
+      <c r="K57" s="289">
         <f>K53+K55</f>
-        <v>1830646.78</v>
-      </c>
-      <c r="L57" s="287"/>
+        <v>2599101.7800000003</v>
+      </c>
+      <c r="L57" s="289"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  HERRADURA  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="COMPRAS FEBRERO 2023   " sheetId="4" r:id="rId4"/>
     <sheet name="  M A R Z O    2 0 2 3       " sheetId="5" r:id="rId5"/>
     <sheet name="  COMPRAS    MARZO  2023     " sheetId="10" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId7"/>
+    <sheet name="inventario de  marzo 2023" sheetId="9" r:id="rId7"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -3965,6 +3965,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494476</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="0"/>
+          <a:ext cx="6590476" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7874,7 +7917,7 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -11594,11 +11637,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13645,7 +13688,7 @@
       </c>
       <c r="E53" s="278"/>
       <c r="F53" s="131">
-        <v>0</v>
+        <v>-2799162.44</v>
       </c>
       <c r="I53" s="279" t="s">
         <v>16</v>
@@ -13653,7 +13696,7 @@
       <c r="J53" s="280"/>
       <c r="K53" s="281">
         <f>F55+F56+F57</f>
-        <v>2829656.33</v>
+        <v>30493.89000000013</v>
       </c>
       <c r="L53" s="282"/>
       <c r="P53" s="36"/>
@@ -13679,7 +13722,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>2829656.33</v>
+        <v>30493.89000000013</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -13718,7 +13761,7 @@
       <c r="J57" s="288"/>
       <c r="K57" s="289">
         <f>K53+K55</f>
-        <v>2599101.7800000003</v>
+        <v>-200060.65999999986</v>
       </c>
       <c r="L57" s="289"/>
     </row>
@@ -13880,9 +13923,9 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15228,11 +15271,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
